--- a/t_Tasks_Guide.xlsx
+++ b/t_Tasks_Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project1\Client\excel\towertrunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project1\Client\excel\tower_20250124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A862999F-DED4-495F-B488-F7DD4429E09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEB62A7-E082-44F0-A06C-145BA2D117AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">导出!$M$1:$N$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">导出!$N$1:$O$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -30,7 +30,7 @@
     <author>jieqi jiang</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -220,9 +220,6 @@
     <t>右边栏任务面板</t>
   </si>
   <si>
-    <t>参数</t>
-  </si>
-  <si>
     <t>f_id</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>f_guidetask</t>
   </si>
   <si>
-    <t>f_param</t>
-  </si>
-  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -403,9 +397,6 @@
     <t>7.mp3</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>80-con1-child0-clickImg</t>
   </si>
   <si>
@@ -418,30 +409,18 @@
     <t>100|15</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>快撑不住了，赶快召唤更多英雄。</t>
   </si>
   <si>
     <t>9.mp3</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>再点击一次，我感觉这次一定能获得高品质的英雄!</t>
   </si>
   <si>
     <t>10.mp3</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>1003|0</t>
   </si>
   <si>
@@ -451,9 +430,6 @@
     <t>11.mp3</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>64-betterBtn</t>
   </si>
   <si>
@@ -502,18 +478,12 @@
     <t>60|0</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>孙悟空拥有"分身"技能，可在短时间内召唤额外的分身，打出爆发伤害!</t>
   </si>
   <si>
     <t>17.mp3</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>39-unlockBtn</t>
   </si>
   <si>
@@ -526,12 +496,6 @@
     <t>20|7</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -556,12 +520,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>1002|0</t>
   </si>
   <si>
@@ -569,12 +527,6 @@
   </si>
   <si>
     <t>20.mp3</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
   <si>
     <t>8</t>
@@ -591,18 +543,6 @@
   </si>
   <si>
     <t>120|0</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>23-guideimg</t>
-  </si>
-  <si>
-    <t>战斗胜利会获得宝箱，宝箱中可以开出大量铜钱和英雄精魄。</t>
-  </si>
-  <si>
-    <t>22.mp3</t>
   </si>
   <si>
     <t>编号</t>
@@ -780,6 +720,37 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-guide_action</t>
+  </si>
+  <si>
+    <t>54|1001|6-10000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_param</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-guide_action</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>44|1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +795,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,6 +805,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,6 +864,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1162,36 +1142,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="15.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="7" width="33.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="58.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="33.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="6" customWidth="1"/>
-    <col min="11" max="11" width="36" style="6" customWidth="1"/>
-    <col min="12" max="12" width="33.875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="53.625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="23.5" style="6" customWidth="1"/>
-    <col min="15" max="15" width="82.875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="17.375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="51" style="6" customWidth="1"/>
-    <col min="18" max="19" width="19.625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="63.25" style="6" customWidth="1"/>
-    <col min="21" max="23" width="37.375" style="6" customWidth="1"/>
-    <col min="24" max="24" width="17.75" style="6" customWidth="1"/>
-    <col min="25" max="25" width="24" style="6" customWidth="1"/>
-    <col min="26" max="26" width="9" style="6"/>
+    <col min="3" max="4" width="25.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="8" width="33.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="58.25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="33.25" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="6" customWidth="1"/>
+    <col min="12" max="12" width="36" style="6" customWidth="1"/>
+    <col min="13" max="13" width="33.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="53.625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="82.875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="17.375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="51" style="6" customWidth="1"/>
+    <col min="19" max="20" width="19.625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="63.25" style="6" customWidth="1"/>
+    <col min="22" max="24" width="37.375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="17.75" style="6" customWidth="1"/>
+    <col min="26" max="26" width="24" style="6" customWidth="1"/>
     <col min="27" max="27" width="23.75" style="6" customWidth="1"/>
     <col min="28" max="28" width="23.875" style="6" customWidth="1"/>
     <col min="29" max="29" width="10.75" style="6" customWidth="1"/>
@@ -1208,249 +1187,249 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>169</v>
+      <c r="D1" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="AA1" s="8" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="AA2" s="8" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>51</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>51</v>
       </c>
       <c r="S3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="W3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="Y3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -1463,28 +1442,28 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>55</v>
+      <c r="D4" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="6">
+      <c r="K4" s="6">
         <v>1</v>
       </c>
       <c r="M4" s="6">
@@ -1505,164 +1484,164 @@
       <c r="R4" s="6">
         <v>1</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>55</v>
+      <c r="S4" s="6">
+        <v>1</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="6">
-        <v>1</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="6">
+        <v>1</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="6">
+      <c r="T7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="6">
+      <c r="T8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" s="6">
+      <c r="T9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>73</v>
+      <c r="Q10" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -1673,18 +1652,18 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="U11" s="6">
+      <c r="V11" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1696,24 +1675,24 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="6">
-        <v>2</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="R12" s="6">
+        <v>1</v>
+      </c>
+      <c r="T12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="U12" s="6">
+      <c r="V12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1725,183 +1704,177 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6" t="s">
+      <c r="V13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="N15" s="6">
+        <v>2</v>
+      </c>
+      <c r="P15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="U13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="6">
-        <v>2</v>
-      </c>
-      <c r="O14" s="6" t="s">
+      <c r="V15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="Q16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="U14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>96</v>
+      <c r="T16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
       <c r="P17" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="U18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>101</v>
+        <v>55</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
+        <v>79</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="V19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="6">
-        <v>4</v>
+      <c r="B20" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>2</v>
-      </c>
-      <c r="U20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1909,23 +1882,25 @@
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q21" s="10"/>
-      <c r="U21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" s="9">
+        <v>2</v>
+      </c>
+      <c r="V21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1933,25 +1908,23 @@
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>109</v>
+        <v>97</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>2</v>
-      </c>
-      <c r="U22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="R22" s="10"/>
+      <c r="V22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -1959,23 +1932,25 @@
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q23" s="10"/>
-      <c r="U23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" s="9">
+        <v>2</v>
+      </c>
+      <c r="V23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -1983,247 +1958,261 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>1</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="U24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="R24" s="10"/>
+      <c r="V24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>66</v>
+      <c r="B25" s="6">
+        <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>106</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="V25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="N27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="N30" s="6">
+        <v>1</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="V30" s="6">
+        <v>1</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O26" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="U26" s="6" t="s">
+      <c r="Q31" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="V32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="Q33" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="N34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="Q34" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="M29" s="6">
-        <v>1</v>
-      </c>
-      <c r="O29" s="6" t="s">
+      <c r="T34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="T29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="U29" s="6">
-        <v>1</v>
-      </c>
-      <c r="V29" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="M31" s="6">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="U31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="U34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="W34" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="V34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA35" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2252,22 +2241,22 @@
   <sheetData>
     <row r="5" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E5" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.2">
@@ -2287,7 +2276,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="5:10" x14ac:dyDescent="0.2">
@@ -2378,7 +2367,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -2567,16 +2556,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>22</v>
@@ -2584,42 +2573,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
